--- a/bilibili_search.xlsx
+++ b/bilibili_search.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,17 +503,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BV1uf6tYBEWN</t>
+          <t>BV1e4ceejEsr</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>《崩坏：星穹铁道》太古颂歌PV：「论泰坦与地上万邦」</t>
+          <t>崩坏：星穹铁道剧情合集三期4K（更新到3.2主线剧情走过安眠地的花丛）</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>崩坏星穹铁道</t>
+          <t>泛音1572</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -522,145 +522,82 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4936301</v>
+        <v>4584934</v>
       </c>
       <c r="F2" t="n">
-        <v>44443</v>
+        <v>49217</v>
       </c>
       <c r="G2" t="n">
-        <v>61078</v>
+        <v>30491</v>
       </c>
       <c r="H2" t="n">
-        <v>117277</v>
+        <v>21928</v>
       </c>
       <c r="I2" t="n">
-        <v>49428</v>
+        <v>3377</v>
       </c>
       <c r="J2" t="n">
-        <v>330417</v>
+        <v>36586</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2024-12-30 18:00:00</t>
+          <t>2025-01-15 12:38:53</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>「永恒圣城」奥赫玛、「千门之城」雅努萨波利斯、「贤者之乡」神悟树庭、「蛮都」悬锋城、「海畔明珠」斯缇科西亚、「雪城」哀地里亚......
-在古老的黄金年代，翁法罗斯大地上曾有万邦毗邻，如今绝大多数都已被黑潮吞没......
-于危难中，天父刻法勒负日擎天，庇护圣城一方光明。但要重塑破碎的世界，英雄们必须搜集古老泰坦的火种——即便这意味着，狩猎诸神。
-中文CV：
-讲述者 —— 刘若班
-日文CV：
-讲述者 —— 喜山 茂雄
-英文CV：
-讲述者 —— Circus-Szalewski
-韩文CV：
-讲述者 —— 윤세하</t>
+          <t>会加快更新的</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>113734223660460</v>
+        <v>113830407439719</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BV1e4ceejEsr</t>
+          <t>BV1yX66YcEPk</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>崩坏：星穹铁道剧情合集三期4K（更新到3.2主线剧情走过安眠地的花丛）</t>
+          <t>《崩坏：星穹铁道》翁法罗斯主题曲MV——「何者」</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泛音1572</t>
+          <t>崩坏星穹铁道</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>手机游戏 (172)</t>
+          <t>原创音乐 (28)</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4584682</v>
+        <v>3836303</v>
       </c>
       <c r="F3" t="n">
-        <v>49216</v>
+        <v>17683</v>
       </c>
       <c r="G3" t="n">
-        <v>30492</v>
+        <v>96938</v>
       </c>
       <c r="H3" t="n">
-        <v>21928</v>
+        <v>127105</v>
       </c>
       <c r="I3" t="n">
-        <v>3376</v>
+        <v>17756</v>
       </c>
       <c r="J3" t="n">
-        <v>36583</v>
+        <v>247565</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-01-15 12:38:53</t>
+          <t>2025-01-03 12:00:00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
-        <is>
-          <t>会加快更新的</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>113830407439719</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>BV1yX66YcEPk</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>《崩坏：星穹铁道》翁法罗斯主题曲MV——「何者」</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>崩坏星穹铁道</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>原创音乐 (28)</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>3836059</v>
-      </c>
-      <c r="F4" t="n">
-        <v>17683</v>
-      </c>
-      <c r="G4" t="n">
-        <v>96935</v>
-      </c>
-      <c r="H4" t="n">
-        <v>127105</v>
-      </c>
-      <c r="I4" t="n">
-        <v>17756</v>
-      </c>
-      <c r="J4" t="n">
-        <v>247561</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2025-01-03 12:00:00</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
         <is>
           <t>《崩坏：星穹铁道》 3.0版本「再创世的凯歌」将于2025年1月15日上线。
 翁法罗斯主题曲「何者」
@@ -712,55 +649,55 @@
 有谁 还在？</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M3" t="n">
         <v>113758701684558</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>BV1XkPLeNEae</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>【星穹铁道3.1新增宝箱全收集】雅努萨波利斯/神悟树庭/创生若虫/成就/贼灵/战利品/黄金替罪羊/启目集/仙馔秘酿/全网最贴心的星穹铁道宝箱攻略</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>你的影月月</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>手机游戏 (172)</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>3586461</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E4" t="n">
+        <v>3586572</v>
+      </c>
+      <c r="F4" t="n">
         <v>8270</v>
       </c>
-      <c r="G5" t="n">
-        <v>20332</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G4" t="n">
+        <v>20331</v>
+      </c>
+      <c r="H4" t="n">
         <v>25441</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I4" t="n">
         <v>2453</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J4" t="n">
         <v>38226</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>2025-02-26 16:54:32</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>空间站黑塔-任务：BV1oa4y1V7Az
 空间站黑塔-宝箱：BV1YM4y1a7wf
@@ -779,110 +716,110 @@
 有帮助的话还请三连支持一下！</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M4" t="n">
         <v>114069298414928</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>BV1q99TYtEge</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>【星穹铁道】嗷呜嗷呜事务所 活动攻略/简单好抄 摆完挂机/奇美拉/打工人模拟器/星穹铁道3.1</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>你的影月月</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>手机游戏 (172)</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>3431698</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E5" t="n">
+        <v>3431708</v>
+      </c>
+      <c r="F5" t="n">
         <v>4562</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G5" t="n">
         <v>12220</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H5" t="n">
         <v>16540</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I5" t="n">
         <v>2282</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J5" t="n">
         <v>43762</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>2025-02-28 12:20:27</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>视频里都带着激活了隐藏关卡，没触发隐藏关卡的话可能要多打一周！
 浴宫里的小奇美拉是3.0宝箱视频里带着从【奥赫玛的红色木马商人】那买的
 有帮助的话还请三连支持一下！</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M5" t="n">
         <v>114079565877142</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>BV1oXf4YtEbL</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>【星穹铁道】地宫迷踪 活动攻略/预言算碑/黄金替罪羊/扎格列斯之手/欧洛尼斯奇迹/星穹铁道3.0</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>你的影月月</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>手机游戏 (172)</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>3130455</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E6" t="n">
+        <v>3130476</v>
+      </c>
+      <c r="F6" t="n">
         <v>8129</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G6" t="n">
         <v>11760</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H6" t="n">
         <v>43723</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I6" t="n">
         <v>2161</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J6" t="n">
         <v>68565</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>2025-01-22 12:18:29</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>黄金替罪羊省流：
 房间1：右7,左
@@ -894,55 +831,55 @@
 有帮助的话还请三连支持一下！</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M6" t="n">
         <v>113870052000464</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>BV1vsdAYUEQv</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>【星穹铁道3.2新增宝箱全收集】黎明云崖/斯缇科西亚/创生若虫/成就/贼灵/战利品/黄金替罪羊/启目集/仙馔秘酿/全网最贴心的星穹铁道宝箱攻略</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>你的影月月</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>手机游戏 (172)</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>2613021</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E7" t="n">
+        <v>2613350</v>
+      </c>
+      <c r="F7" t="n">
         <v>7082</v>
       </c>
-      <c r="G8" t="n">
-        <v>16720</v>
-      </c>
-      <c r="H8" t="n">
-        <v>20092</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="G7" t="n">
+        <v>16722</v>
+      </c>
+      <c r="H7" t="n">
+        <v>20094</v>
+      </c>
+      <c r="I7" t="n">
         <v>1698</v>
       </c>
-      <c r="J8" t="n">
-        <v>29871</v>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="J7" t="n">
+        <v>29875</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>2025-04-09 16:24:47</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>空间站黑塔-任务：BV1oa4y1V7Az
 空间站黑塔-宝箱：BV1YM4y1a7wf
@@ -961,111 +898,55 @@
 有帮助的话还请三连支持一下！</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M7" t="n">
         <v>114307014592941</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>BV1NQrxYbEvL</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>开拓必看！打卡开拓星神都没去过的翁法罗斯！</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BV1yqBMYPENa</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>《崩坏：星穹铁道》TGA参展视频：「你所不曾抵达的世界」</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>崩坏星穹铁道</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>手机游戏 (172)</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>2536842</v>
-      </c>
-      <c r="F9" t="n">
-        <v>45513</v>
-      </c>
-      <c r="G9" t="n">
-        <v>49415</v>
-      </c>
-      <c r="H9" t="n">
-        <v>118537</v>
-      </c>
-      <c r="I9" t="n">
-        <v>26797</v>
-      </c>
-      <c r="J9" t="n">
-        <v>258005</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2025-01-05 12:00:00</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>永恒之地，翁法罗斯，三重命途交织缠绕的未知领域。
-它难以从外部被观测到，只有通过忆庭之镜，才能窥见其中的奥秘。
-今天我们走近《崩坏：星穹铁道》项目组，深入采访他们的创作经历。
-一起探寻，阿基维利也未曾到过的神秘之境——</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>113770898655052</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>BV1yqBMYPENa</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>《崩坏：星穹铁道》TGA参展视频：「你所不曾抵达的世界」</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>崩坏星穹铁道</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>手机游戏 (172)</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>2339991</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E8" t="n">
+        <v>2340006</v>
+      </c>
+      <c r="F8" t="n">
         <v>9078</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G8" t="n">
         <v>37253</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H8" t="n">
         <v>58246</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I8" t="n">
         <v>14876</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J8" t="n">
         <v>200446</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>2024-12-14 12:00:00</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>你的足迹是我们的道标，而我们的足迹将留在你所不曾抵达的世界。
 中文CV：
@@ -1090,52 +971,158 @@
 姬子——김보나</t>
         </is>
       </c>
+      <c r="M8" t="n">
+        <v>113644834654134</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BV1GacoeGESU</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>星穹铁道你错过一个梗会怎样</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>神奇猫猫头</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2243217</v>
+      </c>
+      <c r="F9" t="n">
+        <v>877</v>
+      </c>
+      <c r="G9" t="n">
+        <v>22676</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1147</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5468</v>
+      </c>
+      <c r="J9" t="n">
+        <v>152677</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2025-01-17 21:09:42</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>113843829277556</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BV11CQhYvE8i</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>酱紫耍帅？</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>潮汐的原神小日常</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2101817</v>
+      </c>
+      <c r="F10" t="n">
+        <v>309</v>
+      </c>
+      <c r="G10" t="n">
+        <v>36369</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5313</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3332</v>
+      </c>
+      <c r="J10" t="n">
+        <v>216529</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2025-03-16 22:54:17</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="M10" t="n">
-        <v>113644834654134</v>
+        <v>114172662646478</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BV1GacoeGESU</t>
+          <t>BV1FCdKYPEWH</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>星穹铁道你错过一个梗会怎样</t>
+          <t>人在飞，魂在追，猫猫慢点呀</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>神奇猫猫头</t>
+          <t>月亮在睡觉呀</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>手机游戏 (172)</t>
+          <t>网络游戏 (65)</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2243129</v>
+        <v>2033231</v>
       </c>
       <c r="F11" t="n">
-        <v>877</v>
+        <v>748</v>
       </c>
       <c r="G11" t="n">
-        <v>22676</v>
+        <v>26889</v>
       </c>
       <c r="H11" t="n">
-        <v>1147</v>
+        <v>1558</v>
       </c>
       <c r="I11" t="n">
-        <v>5468</v>
+        <v>2363</v>
       </c>
       <c r="J11" t="n">
-        <v>152675</v>
+        <v>127842</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2025-01-17 21:09:42</t>
+          <t>2025-04-10 01:19:44</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1144,23 +1131,23 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>113843829277556</v>
+        <v>114309145299728</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BV1VxfhYYEGi</t>
+          <t>BV1mrQgYjE6r</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>冰块三月七都能看懂！欢愉向解说翁法罗斯3.0主线！【泛式/星穹铁道】</t>
+          <t>缇宝：你好会上班呀~</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>泛式</t>
+          <t>呵纹Hevon</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1169,189 +1156,29 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2177016</v>
+        <v>1944556</v>
       </c>
       <c r="F12" t="n">
-        <v>6597</v>
+        <v>5827</v>
       </c>
       <c r="G12" t="n">
-        <v>26547</v>
+        <v>22652</v>
       </c>
       <c r="H12" t="n">
-        <v>28466</v>
+        <v>14134</v>
       </c>
       <c r="I12" t="n">
-        <v>6036</v>
+        <v>5533</v>
       </c>
       <c r="J12" t="n">
-        <v>208146</v>
+        <v>164586</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2025-01-22 20:58:07</t>
+          <t>2025-03-14 17:25:46</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
-        <is>
-          <t>娱乐向解说《星铁翁法罗斯篇》3.0主线剧情！帮你理清“12名泰坦”的新设定，非硬核解析向，风格较为轻佻，大家图一乐！
-部分录屏素材→ BV1e4ceejEsr 泛音1572</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>113872014935268</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>BV11CQhYvE8i</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>酱紫耍帅？</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>潮汐的原神小日常</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>手机游戏 (172)</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>2101738</v>
-      </c>
-      <c r="F13" t="n">
-        <v>309</v>
-      </c>
-      <c r="G13" t="n">
-        <v>36366</v>
-      </c>
-      <c r="H13" t="n">
-        <v>5313</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3331</v>
-      </c>
-      <c r="J13" t="n">
-        <v>216525</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>2025-03-16 22:54:17</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>114172662646478</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>BV1FCdKYPEWH</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>人在飞，魂在追，猫猫慢点呀</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>月亮在睡觉呀</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>网络游戏 (65)</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>2033028</v>
-      </c>
-      <c r="F14" t="n">
-        <v>748</v>
-      </c>
-      <c r="G14" t="n">
-        <v>26885</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1558</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2363</v>
-      </c>
-      <c r="J14" t="n">
-        <v>127837</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>2025-04-10 01:19:44</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>114309145299728</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>BV1mrQgYjE6r</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>缇宝：你好会上班呀~</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>呵纹Hevon</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>手机游戏 (172)</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>1944503</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5827</v>
-      </c>
-      <c r="G15" t="n">
-        <v>22651</v>
-      </c>
-      <c r="H15" t="n">
-        <v>14134</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5533</v>
-      </c>
-      <c r="J15" t="n">
-        <v>164586</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2025-03-14 17:25:46</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
         <is>
           <t xml:space="preserve">片尾BGM：花冷列車
 素材绘制：@仓鼠饭团c  
@@ -1359,169 +1186,331 @@
 后期协力：@奶昔PurinN  动效：@假日威龙陈阿颐 </t>
         </is>
       </c>
+      <c r="M12" t="n">
+        <v>114160046246381</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BV1uAcBeJE4r</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>【崩坏星穹铁道】3.0翁法罗斯 宝箱战利品+若虫全收集 奥赫玛+悬锋城+命运重渊+创世涡心</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>莴苣某人</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1878990</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3797</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9739</v>
+      </c>
+      <c r="H13" t="n">
+        <v>12389</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1209</v>
+      </c>
+      <c r="J13" t="n">
+        <v>17294</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2025-01-15 21:36:47</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>宝箱计数逻辑：
+裸露战利品：计入地图成就数，计入米游社成就数
+贼灵：计入地图成就数，不计入米游社成就数
+强敌挑战、预言算碑、黄金短矛、黄金替罪羊、扎格列斯之手战利品：不计入地图成就数，只计入米游社成就数</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>113832605322115</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BV1i1QnYWEyC</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>奇美拉：你好会上班呀～</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>木姬空语</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>手工 (161)</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1849896</v>
+      </c>
+      <c r="F14" t="n">
+        <v>351</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4234</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3165</v>
+      </c>
+      <c r="I14" t="n">
+        <v>959</v>
+      </c>
+      <c r="J14" t="n">
+        <v>108879</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2025-03-12 20:37:44</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>114149476537847</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BV1xKPCeYES5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>灰毛怪偷吃阿格莱雅金苹果！缇宝老师给你降降火！</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>瓶装白矮心</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>同人·手书 (47)</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1764748</v>
+      </c>
+      <c r="F15" t="n">
+        <v>675</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30003</v>
+      </c>
+      <c r="H15" t="n">
+        <v>7182</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3997</v>
+      </c>
+      <c r="J15" t="n">
+        <v>144424</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2025-02-05 11:48:21</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>阿雅气炸了（物理）</t>
+        </is>
+      </c>
       <c r="M15" t="n">
-        <v>114160046246381</v>
+        <v>113949223752777</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BV1i1QnYWEyC</t>
+          <t>BV1n1CEYTEVZ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>奇美拉：你好会上班呀～</t>
+          <t>《崩坏：星穹铁道》翁法罗斯主题曲「何者」预告</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>木姬空语</t>
+          <t>帕姆的收藏夹</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>手工 (161)</t>
+          <t>手机游戏 (172)</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1849895</v>
+        <v>1639426</v>
       </c>
       <c r="F16" t="n">
-        <v>351</v>
+        <v>9310</v>
       </c>
       <c r="G16" t="n">
-        <v>4234</v>
+        <v>21578</v>
       </c>
       <c r="H16" t="n">
-        <v>3165</v>
+        <v>25740</v>
       </c>
       <c r="I16" t="n">
-        <v>959</v>
+        <v>35734</v>
       </c>
       <c r="J16" t="n">
-        <v>108878</v>
+        <v>139996</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2025-03-12 20:37:44</t>
+          <t>2024-12-28 18:00:00</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>114149476537847</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>BV1xKPCeYES5</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>灰毛怪偷吃阿格莱雅金苹果！缇宝老师给你降降火！</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>瓶装白矮心</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>同人·手书 (47)</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>1764716</v>
-      </c>
-      <c r="F17" t="n">
-        <v>675</v>
-      </c>
-      <c r="G17" t="n">
-        <v>30002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>7182</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3997</v>
-      </c>
-      <c r="J17" t="n">
-        <v>144424</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>2025-02-05 11:48:21</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>阿雅气炸了（物理）</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>113949223752777</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>BV1n1CEYTEVZ</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>《崩坏：星穹铁道》翁法罗斯主题曲「何者」预告</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>帕姆的收藏夹</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>手机游戏 (172)</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>1639422</v>
-      </c>
-      <c r="F18" t="n">
-        <v>9310</v>
-      </c>
-      <c r="G18" t="n">
-        <v>21578</v>
-      </c>
-      <c r="H18" t="n">
-        <v>25740</v>
-      </c>
-      <c r="I18" t="n">
-        <v>35734</v>
-      </c>
-      <c r="J18" t="n">
-        <v>139995</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>2024-12-28 18:00:00</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
         <is>
           <t>《崩坏：星穹铁道》翁法罗斯主题曲「何者」
 2025.01.01 8P.M. UTC+8 即将发布
 2025.01.02 0A.M. UTC+8 音源发布</t>
         </is>
       </c>
+      <c r="M16" t="n">
+        <v>113722781598025</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BV1MEcceCEXS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>崩铁嘴上说着削弱特效，结果...</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>优米YuMi丶</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1625469</v>
+      </c>
+      <c r="F17" t="n">
+        <v>323</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10614</v>
+      </c>
+      <c r="H17" t="n">
+        <v>490</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1201</v>
+      </c>
+      <c r="J17" t="n">
+        <v>153433</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2025-01-11 15:48:34</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>113808613842485</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BV1wUfhYmEVU</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>【星穹铁道新春会】银狼大战大黑塔！ 给您拜！年！了！</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ()</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>游戏角色不要在卡池里打架！更不要跑到现实里打架呀呀呀呀呀呀呀呀呀呀呀呀呀呀呀呀呀呀呀！！！！！！听说一键三连加关注大黑塔会给每一个人发一个小黑塔呀呀呀呀呀呀呀呀呀呀呀呀！</t>
+        </is>
+      </c>
       <c r="M18" t="n">
-        <v>113722781598025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1633,17 +1622,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BV1wUfhYmEVU</t>
+          <t>BV1ZBLezEE8k</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>【星穹铁道新春会】银狼大战大黑塔！ 给您拜！年！了！</t>
+          <t>【星穹铁道生日会】全宇宙寻人启事：开拓者失踪了！</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>镜画馆</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1671,12 +1660,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-25 18:00:00</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>游戏角色不要在卡池里打架！更不要跑到现实里打架呀呀呀呀呀呀呀呀呀呀呀呀呀呀呀呀呀呀呀！！！！！！听说一键三连加关注大黑塔会给每一个人发一个小黑塔呀呀呀呀呀呀呀呀呀呀呀呀！</t>
+          <t>如果在这里倒下的话，开拓生涯就要结束了吧……那样的事……不要啊！！\n——你们听我解释！不是我想喝的，但是每开一瓶盖子上都写着再来一瓶欸！\n\n作曲：BLACK 0@留声音乐\n编曲：BLACK 0@留声音乐\n混音：BLACK 0@留声音乐\n音乐统筹：MaoXin \u002F TalanTara\n特别感谢：Laysong\n视频制作：镜画馆</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -1686,101 +1675,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BV1MEcceCEXS</t>
+          <t>BV1v5Ake5ESi</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>崩铁嘴上说着削弱特效，结果...</t>
+          <t>澡堂偶遇金发美女</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>优米YuMi丶</t>
+          <t>漾少侠</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>手机游戏 (172)</t>
+          <t>MMD·3D (25)</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1625433</v>
+        <v>1604534</v>
       </c>
       <c r="F22" t="n">
-        <v>323</v>
+        <v>244</v>
       </c>
       <c r="G22" t="n">
-        <v>10614</v>
+        <v>20435</v>
       </c>
       <c r="H22" t="n">
-        <v>490</v>
+        <v>2174</v>
       </c>
       <c r="I22" t="n">
-        <v>1201</v>
+        <v>3542</v>
       </c>
       <c r="J22" t="n">
-        <v>153432</v>
+        <v>152134</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2025-01-11 15:48:34</t>
+          <t>2025-02-20 12:00:00</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>113808613842485</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>BV1v5Ake5ESi</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>澡堂偶遇金发美女</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>漾少侠</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>MMD·3D (25)</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>1604478</v>
-      </c>
-      <c r="F23" t="n">
-        <v>244</v>
-      </c>
-      <c r="G23" t="n">
-        <v>20434</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2174</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3542</v>
-      </c>
-      <c r="J23" t="n">
-        <v>152133</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2025-02-20 12:00:00</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
         <is>
           <t>原视频：@张凤霞111  BV1Fv411F7d4
 模型：miHoYo
@@ -1789,340 +1725,393 @@
 角色预设：Festivize</t>
         </is>
       </c>
+      <c r="M22" t="n">
+        <v>114030811285600</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BV1xpP9eaEft</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>【星穹铁道】晨昏卷隐 (已完结)活动攻略/全试用角色/低配/平民/一场赴死的和谈/一则鲜见的轶事/一次意外的交流/一重难逃的命运/星穹铁道3.0</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>你的影月月</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1571292</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1674</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5614</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7852</v>
+      </c>
+      <c r="I23" t="n">
+        <v>993</v>
+      </c>
+      <c r="J23" t="n">
+        <v>36473</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2025-02-03 12:45:47</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>打怪活动多少有点运气成分在，怪物打哪个角色是不可控的
+有帮助的话还请三连支持一下！</t>
+        </is>
+      </c>
       <c r="M23" t="n">
-        <v>114030811285600</v>
+        <v>113938117231898</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BV1xpP9eaEft</t>
+          <t>BV13MwzeZEnf</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>【星穹铁道】晨昏卷隐 (已完结)活动攻略/全试用角色/低配/平民/一场赴死的和谈/一则鲜见的轶事/一次意外的交流/一重难逃的命运/星穹铁道3.0</t>
+          <t>《崩坏:星穹铁道》动画短片：「翁法罗斯的颂歌」导演剪辑版预告01</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>你的影月月</t>
+          <t>特效小哥studio</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>手机游戏 (172)</t>
+          <t>综合 (27)</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1571291</v>
+        <v>1558681</v>
       </c>
       <c r="F24" t="n">
-        <v>1674</v>
+        <v>585</v>
       </c>
       <c r="G24" t="n">
-        <v>5614</v>
+        <v>29519</v>
       </c>
       <c r="H24" t="n">
-        <v>7852</v>
+        <v>10573</v>
       </c>
       <c r="I24" t="n">
-        <v>993</v>
+        <v>3090</v>
       </c>
       <c r="J24" t="n">
-        <v>36473</v>
+        <v>124775</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2025-02-03 12:45:47</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>打怪活动多少有点运气成分在，怪物打哪个角色是不可控的
-有帮助的话还请三连支持一下！</t>
-        </is>
-      </c>
+          <t>2025-01-19 17:00:00</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>113938117231898</v>
+        <v>113853677439382</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BV13MwzeZEnf</t>
+          <t>BV1H9ceeZEVx</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>《崩坏:星穹铁道》动画短片：「翁法罗斯的颂歌」导演剪辑版预告01</t>
+          <t>大黑塔生产小黑塔！小灰毛偷偷干坏事！</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>特效小哥studio</t>
+          <t>瓶装白矮心</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>综合 (27)</t>
+          <t>同人·手书 (47)</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1558672</v>
+        <v>1557420</v>
       </c>
       <c r="F25" t="n">
-        <v>585</v>
+        <v>251</v>
       </c>
       <c r="G25" t="n">
-        <v>29520</v>
+        <v>15593</v>
       </c>
       <c r="H25" t="n">
-        <v>10573</v>
+        <v>2630</v>
       </c>
       <c r="I25" t="n">
-        <v>3090</v>
+        <v>1453</v>
       </c>
       <c r="J25" t="n">
-        <v>124774</v>
+        <v>102571</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2025-01-19 17:00:00</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
+          <t>2025-01-15 11:12:21</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>大黑塔：给你脸了</t>
+        </is>
+      </c>
       <c r="M25" t="n">
-        <v>113853677439382</v>
+        <v>113830172565380</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BV1H9ceeZEVx</t>
+          <t>BV1QZBBYwE5Y</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>大黑塔生产小黑塔！小灰毛偷偷干坏事！</t>
+          <t>woc 爱莉希雅！！！！！！是崩铁的爱莉希雅啊啊！</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>瓶装白矮心</t>
+          <t>果蝇轰</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>同人·手书 (47)</t>
+          <t>手机游戏 (172)</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1557400</v>
+        <v>1476745</v>
       </c>
       <c r="F26" t="n">
-        <v>251</v>
+        <v>27785</v>
       </c>
       <c r="G26" t="n">
-        <v>15593</v>
+        <v>23296</v>
       </c>
       <c r="H26" t="n">
-        <v>2630</v>
+        <v>69591</v>
       </c>
       <c r="I26" t="n">
-        <v>1453</v>
+        <v>4154</v>
       </c>
       <c r="J26" t="n">
-        <v>102571</v>
+        <v>108255</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2025-01-15 11:12:21</t>
+          <t>2024-11-22 21:21:09</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>大黑塔：给你脸了</t>
+          <t>爱门</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>113830172565380</v>
+        <v>113526790226271</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BV1QZBBYwE5Y</t>
+          <t>BV1XxcReqEtf</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>woc 爱莉希雅！！！！！！是崩铁的爱莉希雅啊啊！</t>
+          <t>《崩坏：星穹铁道》EP：「洞穴寓言」</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>果蝇轰</t>
+          <t>崩坏星穹铁道</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>手机游戏 (172)</t>
+          <t>原创音乐 (28)</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1476720</v>
+        <v>1446322</v>
       </c>
       <c r="F27" t="n">
-        <v>27785</v>
+        <v>10399</v>
       </c>
       <c r="G27" t="n">
-        <v>23295</v>
+        <v>17606</v>
       </c>
       <c r="H27" t="n">
-        <v>69591</v>
+        <v>21520</v>
       </c>
       <c r="I27" t="n">
-        <v>4154</v>
+        <v>3549</v>
       </c>
       <c r="J27" t="n">
-        <v>108256</v>
+        <v>121134</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2024-11-22 21:21:09</t>
+          <t>2025-01-19 12:00:00</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>爱门</t>
+          <t>走出洞穴的人不愿再回到牢笼中去，因为他已看见过真实。</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>113526790226271</v>
+        <v>113843393005896</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BV1XxcReqEtf</t>
+          <t>BV1xoARePEDz</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>《崩坏：星穹铁道》EP：「洞穴寓言」</t>
+          <t>原来三个老婆真能合成一个大老婆啊？</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>崩坏星穹铁道</t>
+          <t>烦恼死的夏洛</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>原创音乐 (28)</t>
+          <t>MMD·3D (25)</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1446297</v>
+        <v>1431093</v>
       </c>
       <c r="F28" t="n">
-        <v>10398</v>
+        <v>290</v>
       </c>
       <c r="G28" t="n">
-        <v>17606</v>
+        <v>40026</v>
       </c>
       <c r="H28" t="n">
-        <v>21520</v>
+        <v>6776</v>
       </c>
       <c r="I28" t="n">
-        <v>3549</v>
+        <v>6406</v>
       </c>
       <c r="J28" t="n">
-        <v>121134</v>
+        <v>170231</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2025-01-19 12:00:00</t>
+          <t>2025-02-24 11:40:58</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>走出洞穴的人不愿再回到牢笼中去，因为他已看见过真实。</t>
+          <t>Model:mihoyo/烦恼死的夏洛/填字小檀桌/林槿
+Motion:こっちゃ</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>113843393005896</v>
+        <v>114056765638895</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BV1xoARePEDz</t>
+          <t>BV1RUwTegEPY</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>原来三个老婆真能合成一个大老婆啊？</t>
+          <t>遐蝶大招技能动画完整版 实机演示</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>烦恼死的夏洛</t>
+          <t>枫缘夕</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>MMD·3D (25)</t>
+          <t>手机游戏 (172)</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1431052</v>
+        <v>1384334</v>
       </c>
       <c r="F29" t="n">
-        <v>290</v>
+        <v>153</v>
       </c>
       <c r="G29" t="n">
-        <v>40026</v>
+        <v>3181</v>
       </c>
       <c r="H29" t="n">
-        <v>6776</v>
+        <v>353</v>
       </c>
       <c r="I29" t="n">
-        <v>6406</v>
+        <v>5047</v>
       </c>
       <c r="J29" t="n">
-        <v>170231</v>
+        <v>50411</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2025-02-24 11:40:58</t>
+          <t>2025-01-19 08:00:00</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Model:mihoyo/烦恼死的夏洛/填字小檀桌/林槿
-Motion:こっちゃ</t>
+          <t>别打了，别打了，我错了</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>114056765638895</v>
+        <v>113850036787591</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BV1RUwTegEPY</t>
+          <t>BV1dNQpYbEmr</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>遐蝶大招技能动画完整版 实机演示</t>
+          <t>星穹铁道3.1剧情.zip</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>枫缘夕</t>
+          <t>菜鸟阿彪</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2131,82 +2120,29 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1384319</v>
+        <v>1367154</v>
       </c>
       <c r="F30" t="n">
-        <v>153</v>
+        <v>2508</v>
       </c>
       <c r="G30" t="n">
-        <v>3181</v>
+        <v>22554</v>
       </c>
       <c r="H30" t="n">
-        <v>353</v>
+        <v>13868</v>
       </c>
       <c r="I30" t="n">
-        <v>5047</v>
+        <v>6554</v>
       </c>
       <c r="J30" t="n">
-        <v>50411</v>
+        <v>80736</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2025-01-19 08:00:00</t>
+          <t>2025-03-12 16:57:26</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
-        <is>
-          <t>别打了，别打了，我错了</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>113850036787591</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>BV1dNQpYbEmr</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>星穹铁道3.1剧情.zip</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>菜鸟阿彪</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>手机游戏 (172)</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>1367086</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2508</v>
-      </c>
-      <c r="G31" t="n">
-        <v>22553</v>
-      </c>
-      <c r="H31" t="n">
-        <v>13868</v>
-      </c>
-      <c r="I31" t="n">
-        <v>6554</v>
-      </c>
-      <c r="J31" t="n">
-        <v>80736</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>2025-03-12 16:57:26</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
         <is>
           <t>崩铁3.1主线的有损压缩，来辣！
 哎呀~这版本万敌得了MVP！
@@ -2214,214 +2150,214 @@
 （这系列视频是根据游戏剧情的鬼畜整活，很多地方跟游戏内的剧情有出入，体验正常剧情还是要上游戏哦）</t>
         </is>
       </c>
+      <c r="M30" t="n">
+        <v>114148604119239</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BV1FUf4YwEmV</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>阿格莱雅不让你说自己是天外之人，你说不说？</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>晟鸽鸽</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1286594</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5212</v>
+      </c>
+      <c r="G31" t="n">
+        <v>30863</v>
+      </c>
+      <c r="H31" t="n">
+        <v>16894</v>
+      </c>
+      <c r="I31" t="n">
+        <v>37773</v>
+      </c>
+      <c r="J31" t="n">
+        <v>142493</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2025-01-22 12:47:08</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="M31" t="n">
-        <v>114148604119239</v>
+        <v>113870169444834</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BV1FUf4YwEmV</t>
+          <t>BV1ftRdYYEWR</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>阿格莱雅不让你说自己是天外之人，你说不说？</t>
+          <t>牢景被肘晕前的幻想罢了</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>晟鸽鸽</t>
+          <t>MAZE攻略组</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>手机游戏 (172)</t>
+          <t>娱乐粉丝创作 (242)</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1286592</v>
+        <v>1256009</v>
       </c>
       <c r="F32" t="n">
-        <v>5212</v>
+        <v>200</v>
       </c>
       <c r="G32" t="n">
-        <v>30863</v>
+        <v>5201</v>
       </c>
       <c r="H32" t="n">
-        <v>16894</v>
+        <v>389</v>
       </c>
       <c r="I32" t="n">
-        <v>37773</v>
+        <v>3353</v>
       </c>
       <c r="J32" t="n">
-        <v>142493</v>
+        <v>79107</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2025-01-22 12:47:08</t>
+          <t>2025-04-05 22:27:48</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>“居然能和超九门并列吗，哈基景，你这家伙”</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>113870169444834</v>
+        <v>114285808196036</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BV1ftRdYYEWR</t>
+          <t>BV1mf6qYbEAW</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>牢景被肘晕前的幻想罢了</t>
+          <t>喜讯！有一半以上的星铁账号已痛失50万星琼抽奖资格！</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MAZE攻略组</t>
+          <t>星铃拿铁</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>娱乐粉丝创作 (242)</t>
+          <t>手机游戏 (172)</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1255927</v>
+        <v>1241341</v>
       </c>
       <c r="F33" t="n">
-        <v>200</v>
+        <v>579</v>
       </c>
       <c r="G33" t="n">
-        <v>5201</v>
+        <v>2042</v>
       </c>
       <c r="H33" t="n">
-        <v>389</v>
+        <v>122</v>
       </c>
       <c r="I33" t="n">
-        <v>3353</v>
+        <v>4951</v>
       </c>
       <c r="J33" t="n">
-        <v>79097</v>
+        <v>62373</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2025-04-05 22:27:48</t>
+          <t>2025-01-02 18:56:09</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>“居然能和超九门并列吗，哈基景，你这家伙”</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>114285808196036</v>
+        <v>113758382853814</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BV1mf6qYbEAW</t>
+          <t>BV1DJfeYPES3</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>喜讯！有一半以上的星铁账号已痛失50万星琼抽奖资格！</t>
+          <t>一健逗蝶</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>星铃拿铁</t>
+          <t>那啥的青年</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>手机游戏 (172)</t>
+          <t>MMD·3D (25)</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1241341</v>
+        <v>1219912</v>
       </c>
       <c r="F34" t="n">
-        <v>579</v>
+        <v>167</v>
       </c>
       <c r="G34" t="n">
-        <v>2042</v>
+        <v>33504</v>
       </c>
       <c r="H34" t="n">
-        <v>122</v>
+        <v>2290</v>
       </c>
       <c r="I34" t="n">
-        <v>4951</v>
+        <v>1632</v>
       </c>
       <c r="J34" t="n">
-        <v>62373</v>
+        <v>187483</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2025-01-02 18:56:09</t>
+          <t>2025-01-23 06:44:05</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>113758382853814</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>BV1DJfeYPES3</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>一健逗蝶</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>那啥的青年</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>MMD·3D (25)</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>1219907</v>
-      </c>
-      <c r="F35" t="n">
-        <v>167</v>
-      </c>
-      <c r="G35" t="n">
-        <v>33504</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2290</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1632</v>
-      </c>
-      <c r="J35" t="n">
-        <v>187483</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>2025-01-23 06:44:05</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
         <is>
           <t>借物表
 ----------------------------------
@@ -2432,24 +2368,78 @@
 语音：https://acgn.ttson.cn/</t>
         </is>
       </c>
+      <c r="M34" t="n">
+        <v>113874414080932</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BV1RmwueUE1L</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>无黄泉玩家3.0跑图现状</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Narwalncy</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1219681</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1031</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7131</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1688</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4642</v>
+      </c>
+      <c r="J35" t="n">
+        <v>110850</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>2025-01-16 10:58:14</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>密码的笑死了哈哈哈哈哈
+BGM: BABY DRIVER - DEJA VU (Eurobeat for maximum KANSEI DORIFTO)</t>
+        </is>
+      </c>
       <c r="M35" t="n">
-        <v>113874414080932</v>
+        <v>113835776149640</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BV1RmwueUE1L</t>
+          <t>BV1qYw5eeELA</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>无黄泉玩家3.0跑图现状</t>
+          <t>星核猎手以前的台词真狠啊</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Narwalncy</t>
+          <t>我可莉害了V</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2458,89 +2448,2185 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1219680</v>
+        <v>1212077</v>
       </c>
       <c r="F36" t="n">
-        <v>1031</v>
+        <v>364</v>
       </c>
       <c r="G36" t="n">
-        <v>7131</v>
+        <v>16367</v>
       </c>
       <c r="H36" t="n">
-        <v>1688</v>
+        <v>533</v>
       </c>
       <c r="I36" t="n">
-        <v>4642</v>
+        <v>455</v>
       </c>
       <c r="J36" t="n">
-        <v>110850</v>
+        <v>97808</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2025-01-16 10:58:14</t>
+          <t>2025-01-16 17:22:20</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>密码的笑死了哈哈哈哈哈
-BGM: BABY DRIVER - DEJA VU (Eurobeat for maximum KANSEI DORIFTO)</t>
+          <t>崩坏：星穹铁道3.0创意剪辑视频</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>113835776149640</v>
+        <v>113837286099386</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BV1ZBLezEE8k</t>
+          <t>BV1dk6qYgEw7</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>【星穹铁道生日会】全宇宙寻人启事：开拓者失踪了！</t>
+          <t>超A燃炸！！《崩坏:星穹铁道》OP「何者」完整版 |【祖娅纳惜】</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>镜画馆</t>
+          <t>祖娅纳惜</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ()</t>
+          <t>翻唱 (31)</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1198623</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>19773</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>14103</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1927</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>94494</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2025-04-25 18:00:00</t>
+          <t>2025-01-02 12:02:17</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>如果在这里倒下的话，开拓生涯就要结束了吧……那样的事……不要啊！！\n——你们听我解释！不是我想喝的，但是每开一瓶盖子上都写着再来一瓶欸！\n\n作曲：BLACK 0@留声音乐\n编曲：BLACK 0@留声音乐\n混音：BLACK 0@留声音乐\n音乐统筹：MaoXin \u002F TalanTara\n特别感谢：Laysong\n视频制作：镜画馆</t>
+          <t>《崩坏：星穹铁道》OP：「何者」
+原唱：谭晶/几田莉拉（英文版）
+翻唱：祖娅纳惜
+「英雄、神明、傀儡、囚徒，究竟谁是你？你又是谁？」
+「我只是故事里千万张不认命的面孔之一。你看见的，那就是我。」</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>113756755464102</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BV1yofUYNE32</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>太震撼了！最喜欢英配的一集😭</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>辛西娅梦游星铁</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1195633</v>
+      </c>
+      <c r="F38" t="n">
+        <v>225</v>
+      </c>
+      <c r="G38" t="n">
+        <v>32664</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3835</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2460</v>
+      </c>
+      <c r="J38" t="n">
+        <v>144406</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>2025-01-27 16:48:37</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>“记住——我是这世间必要的伤痕！”</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>113899445685076</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BV1Z7ddYPED6</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>影月月玩豹豹碰碰大作战被顶级物理学家打懵逼：这都能算出来 太可怕了！</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>游戏BBQ</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>电子竞技 (171)</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1193623</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1847</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5890</v>
+      </c>
+      <c r="H39" t="n">
+        <v>415</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5143</v>
+      </c>
+      <c r="J39" t="n">
+        <v>34507</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2025-04-12 12:31:41</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>影月月直播间：https://live.bilibili.com/21414905
+大家点赞收藏三连，充电1B币即可获得BBQ粉丝牌哦！</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>114323087169994</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>BV1z9N1ewE9Q</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>迷迷联动斯科特单曲《Me Me Me》</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金咸鱼</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>鬼畜调教 (22)</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1187290</v>
+      </c>
+      <c r="F40" t="n">
+        <v>967</v>
+      </c>
+      <c r="G40" t="n">
+        <v>40822</v>
+      </c>
+      <c r="H40" t="n">
+        <v>28018</v>
+      </c>
+      <c r="I40" t="n">
+        <v>16626</v>
+      </c>
+      <c r="J40" t="n">
+        <v>147715</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2025-02-09 09:23:24</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>翁法罗斯经典曲目（确信）
+借物表：
+模型：米哈游
+动作：JohnyL.
+BV1t5P6e8EgF
+BV1tiFZeeEzc
+BV158FTeiECj</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>113971268948729</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>BV13oPye7EUE</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>刻法勒背着的太阳是一个大型奇迹宝珠！？！</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>卡了麻麻</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1166038</v>
+      </c>
+      <c r="F41" t="n">
+        <v>13804</v>
+      </c>
+      <c r="G41" t="n">
+        <v>36885</v>
+      </c>
+      <c r="H41" t="n">
+        <v>8609</v>
+      </c>
+      <c r="I41" t="n">
+        <v>15101</v>
+      </c>
+      <c r="J41" t="n">
+        <v>155376</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2025-02-05 14:38:48</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>目前仅为猜测，还没实锤</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>113949894771047</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BV1uv6VYZEus</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>【几田莉拉】为崩坏星穹铁道新世界翁法罗斯演唱主题曲《Nameless Faces》</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>几田莉拉</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>音乐综合 (130)</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1160230</v>
+      </c>
+      <c r="F42" t="n">
+        <v>504</v>
+      </c>
+      <c r="G42" t="n">
+        <v>12519</v>
+      </c>
+      <c r="H42" t="n">
+        <v>8645</v>
+      </c>
+      <c r="I42" t="n">
+        <v>10912</v>
+      </c>
+      <c r="J42" t="n">
+        <v>103749</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2024-12-30 19:46:22</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>各位开拓者你们好，我和《崩坏：星穹铁道》合作的翁法罗斯主题曲《Nameless Faces》，将于1月2日上线音乐平台啦，欢迎大家收听~</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>113741588861181</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BV1Rzw5e8EYS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>真是惊喜，用了快两年的信标原来是自己插上去的</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>月亮在睡觉呀</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>网络游戏 (65)</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1154203</v>
+      </c>
+      <c r="F43" t="n">
+        <v>352</v>
+      </c>
+      <c r="G43" t="n">
+        <v>16853</v>
+      </c>
+      <c r="H43" t="n">
+        <v>415</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2172</v>
+      </c>
+      <c r="J43" t="n">
+        <v>169735</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>2025-01-16 17:04:24</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>113837219054167</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BV1wpc6e5EKG</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>我嘞个铲平天地的一击啊</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>我可莉害了V</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1130470</v>
+      </c>
+      <c r="F44" t="n">
+        <v>671</v>
+      </c>
+      <c r="G44" t="n">
+        <v>11094</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1200</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3235</v>
+      </c>
+      <c r="J44" t="n">
+        <v>76258</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2025-01-16 00:11:47</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>崩坏：星穹铁道创意剪辑视频</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>113833226079163</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BV1btB6YhEK3</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>【崩铁】翁法罗斯剧情极速版</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>猫瓜西西</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>GMV (121)</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1128560</v>
+      </c>
+      <c r="F45" t="n">
+        <v>9884</v>
+      </c>
+      <c r="G45" t="n">
+        <v>23728</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4277</v>
+      </c>
+      <c r="I45" t="n">
+        <v>30308</v>
+      </c>
+      <c r="J45" t="n">
+        <v>89949</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>2024-11-23 08:00:00</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>整活向视频，搓手期待3.0
+崩坏星穹铁道3.0 又简称 崩坏3</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>113528216361868</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BV1G2P7egEX1</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>我本以为星期日的logo已经够特别了🤔</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>辛西娅梦游星铁</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1128143</v>
+      </c>
+      <c r="F46" t="n">
+        <v>48</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4483</v>
+      </c>
+      <c r="H46" t="n">
+        <v>147</v>
+      </c>
+      <c r="I46" t="n">
+        <v>239</v>
+      </c>
+      <c r="J46" t="n">
+        <v>76070</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>2025-02-26 20:21:22</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>结果还有高手？！缇宝的专属logo甚至有动画，和大招相性也很好，我可太喜欢了🚀</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>114070153921329</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>BV1qq6ZYNEj3</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>新歌来了！《崩坏：星穹铁道》3.0「翁法罗斯」主题曲《何者》</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>JLRS-jayfm</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>电台 (267)</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1123104</v>
+      </c>
+      <c r="F47" t="n">
+        <v>919</v>
+      </c>
+      <c r="G47" t="n">
+        <v>28610</v>
+      </c>
+      <c r="H47" t="n">
+        <v>9851</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4245</v>
+      </c>
+      <c r="J47" t="n">
+        <v>49967</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>2025-01-02 00:46:24</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>新歌来了！《崩坏：星穹铁道》3.0「翁法罗斯」主题曲《何者》
+演唱者：谭晶
+作词：往人不识 / 李崎
+作曲：王可鑫 Eli.W (HOYO-MiX)
+编曲：TSAR
+音响：真力1234
+录音MIC：纽曼149 2支
+录音设备：SSL Duality Delta Pro Station + Protools
+侵删</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>113754087950936</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BV1C9P3egE9u</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>【星穹铁道】⚡请选择你的命途！⚡</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>小鸟游香゜</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>VOCALOID·UTAU (30)</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1111086</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3916</v>
+      </c>
+      <c r="G48" t="n">
+        <v>100309</v>
+      </c>
+      <c r="H48" t="n">
+        <v>36383</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3798</v>
+      </c>
+      <c r="J48" t="n">
+        <v>122820</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2025-02-26 10:15:31</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>策划：小鸟游香
+演唱：星尘、海伊ai
+填词：@尘梦迷茔  
+调音/混音：麻辣兔头p</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>114067771498290</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>BV1MFwhewE4m</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>【崩铁云剧场】翁法罗斯三人行1：启程</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>藏根的云</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>MMD·3D (25)</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1097453</v>
+      </c>
+      <c r="F49" t="n">
+        <v>449</v>
+      </c>
+      <c r="G49" t="n">
+        <v>42454</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3547</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4469</v>
+      </c>
+      <c r="J49" t="n">
+        <v>119923</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2025-01-21 19:10:00</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>*待续* （欢迎投稿点子）
+模型：miHoYo/神帝宇/流云景
+场景：miHoYo/手席单推人/藏根的云
+渲染：Festivity/克里斯
+配音：刃/丹恒-开心xy_@开心xy_  
+           银狼/星-是个馒头诶 @是个馒头诶  
+剧本/动作/视频制作：藏根的云</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>113865538931097</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BV1CRdtYNERk</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>星铁纪念册开服数量下降百分之一！牢玩家换取还有戏！（240万纪念册）</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>天际义气</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>日常 (21)</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>1091243</v>
+      </c>
+      <c r="F50" t="n">
+        <v>230</v>
+      </c>
+      <c r="G50" t="n">
+        <v>879</v>
+      </c>
+      <c r="H50" t="n">
+        <v>570</v>
+      </c>
+      <c r="I50" t="n">
+        <v>219</v>
+      </c>
+      <c r="J50" t="n">
+        <v>36380</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2025-04-09 11:04:08</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>星铁240万份纪念册，20号前应该有的
+崩坏星穹铁道
+米哈游
+原画集
+白送
+周年庆
+走过安眠的花丛
+崩坏星穹铁道3.2</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>114305773079120</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>BV1LZwieoEqX</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>翁法罗斯最强解密！摩斯电码与石板隐藏了什么剧情？</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>托比昂首挺胸</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>1073466</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1512</v>
+      </c>
+      <c r="G51" t="n">
+        <v>49421</v>
+      </c>
+      <c r="H51" t="n">
+        <v>41341</v>
+      </c>
+      <c r="I51" t="n">
+        <v>16103</v>
+      </c>
+      <c r="J51" t="n">
+        <v>88527</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2025-01-19 11:47:39</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>昨天弄了一天这玩意儿，太折磨了
+建议大家跟一些攻略视频做
+兑换码：IFYOUAREREADINGTHIS</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>113852956023220</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>BV1R7N1edEXr</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>【星穹铁道】谁说这么审讯不好的？这审讯可太棒了！</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NZ75鸽</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>同人·手书 (47)</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>1071647</v>
+      </c>
+      <c r="F52" t="n">
+        <v>5134</v>
+      </c>
+      <c r="G52" t="n">
+        <v>33623</v>
+      </c>
+      <c r="H52" t="n">
+        <v>5397</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1341</v>
+      </c>
+      <c r="J52" t="n">
+        <v>115399</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>2025-02-09 12:01:32</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>你们知道的啊，我一直喜欢阿格莱雅小姐，阿格莱雅小姐就是翁法罗斯的光，阿格莱雅大人就是翁法罗斯的美，阿格莱雅的爱就是翁法罗斯的太阳
+忠！诚！</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>113971923256625</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BV1WddzYPE4G</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>下任黄金裔是完全没希望了！！</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>卡了麻麻</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>1069837</v>
+      </c>
+      <c r="F53" t="n">
+        <v>316</v>
+      </c>
+      <c r="G53" t="n">
+        <v>14691</v>
+      </c>
+      <c r="H53" t="n">
+        <v>811</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3771</v>
+      </c>
+      <c r="J53" t="n">
+        <v>104056</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2025-04-13 20:43:14</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>114330687245239</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>BV1RkwNeiEn5</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>大伟哥都不知道，翁法罗斯还能这么玩（有剧情内容，怕剧透跳到35秒之后）【崩坏：星穹铁道】</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>好困啊可以睡觉吗</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>1068684</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1004</v>
+      </c>
+      <c r="G54" t="n">
+        <v>16195</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1636</v>
+      </c>
+      <c r="I54" t="n">
+        <v>10076</v>
+      </c>
+      <c r="J54" t="n">
+        <v>75192</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2025-01-18 19:52:46</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>113849197920745</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BV1Q857zdEm9</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>星穹铁道3.2剧情.zip</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>菜鸟阿彪</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>1064304</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3584</v>
+      </c>
+      <c r="G55" t="n">
+        <v>20998</v>
+      </c>
+      <c r="H55" t="n">
+        <v>16746</v>
+      </c>
+      <c r="I55" t="n">
+        <v>8316</v>
+      </c>
+      <c r="J55" t="n">
+        <v>79658</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>2025-04-18 16:28:19</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>崩铁3.2主线的有损压缩，来辣！
+三月七掉线这么久....好像已经能领回归奖励了。
+...
+（这系列视频是根据游戏剧情的鬼畜整活，很多地方跟游戏内的剧情有出入，体验正常剧情还是要上游戏哦）</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>114358000553939</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>BV1dwwjeYEhZ</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>独家解析，阿格莱雅计划？全程高能，昔涟顶级细节！</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Jerryprpr</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1063452</v>
+      </c>
+      <c r="F56" t="n">
+        <v>4217</v>
+      </c>
+      <c r="G56" t="n">
+        <v>21337</v>
+      </c>
+      <c r="H56" t="n">
+        <v>7125</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5483</v>
+      </c>
+      <c r="J56" t="n">
+        <v>102431</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2025-01-16 20:57:23</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>感谢开拓者关注！ 欢迎加入星铁剧情交流群：923940488</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>113838124962407</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BV1QUdeYYEZa</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>哈基鹅你这家伙，玩到真开拓了</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>月亮在睡觉呀</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>网络游戏 (65)</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>1058618</v>
+      </c>
+      <c r="F57" t="n">
+        <v>169</v>
+      </c>
+      <c r="G57" t="n">
+        <v>13090</v>
+      </c>
+      <c r="H57" t="n">
+        <v>475</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4583</v>
+      </c>
+      <c r="J57" t="n">
+        <v>96327</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2025-04-12 23:36:13</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>114325721188668</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>BV1zuBkYHEiU</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>翁法罗斯boss:这逆天的匹配机制!</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>无想StarRaiI</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>1044210</v>
+      </c>
+      <c r="F58" t="n">
+        <v>158</v>
+      </c>
+      <c r="G58" t="n">
+        <v>12043</v>
+      </c>
+      <c r="H58" t="n">
+        <v>533</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1444</v>
+      </c>
+      <c r="J58" t="n">
+        <v>66541</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2024-11-23 08:04:23</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>113529323657974</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>BV1VLwCezE8p</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>“量子，蝴蝶，镰刀，限五”不认识我了？早和你说过.... 崩坏：星穹铁道 希儿 膝盖 宝箱</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Oracle大卫</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>1042469</v>
+      </c>
+      <c r="F59" t="n">
+        <v>140</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1312</v>
+      </c>
+      <c r="H59" t="n">
+        <v>106</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1115</v>
+      </c>
+      <c r="J59" t="n">
+        <v>41853</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2025-01-19 21:52:08</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>HSR，宝箱
+不认识我了？早和你说过：“量子，蝴蝶，镰刀，限五”
+希儿：“没错”</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>113855338385479</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BV18ePXeNE4A</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>粉色妖精小姐与流萤见面的一个故事【崩坏:星穹铁道动画】</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CelinePizza</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>同人·手书 (47)</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>1041391</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1829</v>
+      </c>
+      <c r="G60" t="n">
+        <v>42094</v>
+      </c>
+      <c r="H60" t="n">
+        <v>39474</v>
+      </c>
+      <c r="I60" t="n">
+        <v>5781</v>
+      </c>
+      <c r="J60" t="n">
+        <v>117594</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>2025-02-03 16:02:02</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>注：可能因为作者理解而存在ooc
+请多多关注，多多支持！
+大家记得关注+一键三连 还有帮充电 哦~
+很希望大家喜欢这个作品。
+大家记得关注+一键三连 还有帮充电 哦~
+新的创造哔哩哔哩 2nd 账号：﻿﻿﻿﻿﻿﻿@Celinepizza官方</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>113938654037480</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>BV15ywNeKESZ</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>这是一次，跨越时空的守护</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>摸鱼之上</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>综合 (27)</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1034655</v>
+      </c>
+      <c r="F61" t="n">
+        <v>184</v>
+      </c>
+      <c r="G61" t="n">
+        <v>24016</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1989</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1708</v>
+      </c>
+      <c r="J61" t="n">
+        <v>132845</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2025-01-18 19:45:37</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>113849181215243</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>BV1SQ99YLEQW</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>躲避射线无需方向键只靠普攻到达安全点教程 最简单的操作【星穹铁道/躲避射线】</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>mohadu</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>1019901</v>
+      </c>
+      <c r="F62" t="n">
+        <v>184</v>
+      </c>
+      <c r="G62" t="n">
+        <v>23764</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2420</v>
+      </c>
+      <c r="I62" t="n">
+        <v>4754</v>
+      </c>
+      <c r="J62" t="n">
+        <v>67083</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>2025-03-08 13:49:11</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>不碰方向键，也不需要看标志物
+最简单的操作</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>114125216681976</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>BV1NQdDYiEoi</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>万敌不语！只是一味的跑马拉松！</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>卡了麻麻</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>1005064</v>
+      </c>
+      <c r="F63" t="n">
+        <v>300</v>
+      </c>
+      <c r="G63" t="n">
+        <v>15940</v>
+      </c>
+      <c r="H63" t="n">
+        <v>721</v>
+      </c>
+      <c r="I63" t="n">
+        <v>4590</v>
+      </c>
+      <c r="J63" t="n">
+        <v>122616</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>2025-04-11 20:04:10</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>114319211629278</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>BV1NywQeQEZu</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>建模还原卫星图？遐蝶还真不是照骗啊！</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>烦恼死的夏洛</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>MMD·3D (25)</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>1004682</v>
+      </c>
+      <c r="F64" t="n">
+        <v>57</v>
+      </c>
+      <c r="G64" t="n">
+        <v>19154</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2374</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2103</v>
+      </c>
+      <c r="J64" t="n">
+        <v>135676</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2025-02-17 12:18:33</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Model:mihoyo/流云景/烦恼死的夏洛</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>114017272070902</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>BV1ZhwAeKE4t</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>暴论崩铁3.0：记忆体成精三月七？数据世界翁法罗斯！</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>果蝇轰</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>1003470</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8795</v>
+      </c>
+      <c r="G65" t="n">
+        <v>13176</v>
+      </c>
+      <c r="H65" t="n">
+        <v>27468</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1736</v>
+      </c>
+      <c r="J65" t="n">
+        <v>99855</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2025-01-18 18:20:44</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>黑天鹅，你别跑，我要给你bangbang两拳</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>113848828823636</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>BV1bM5yzdEjs</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>都在对标原神，为什么友商不敢去碰瓷崩铁？</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>原神同人菌</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1001494</v>
+      </c>
+      <c r="F66" t="n">
+        <v>5312</v>
+      </c>
+      <c r="G66" t="n">
+        <v>8395</v>
+      </c>
+      <c r="H66" t="n">
+        <v>487</v>
+      </c>
+      <c r="I66" t="n">
+        <v>572</v>
+      </c>
+      <c r="J66" t="n">
+        <v>79991</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>2025-04-21 17:40:07</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>114375264310819</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>BV1cZw9eDEDj</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>翁法罗斯的怪物太多啦！快请黄泉姐姐帮帮！</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>瓶装白矮心</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>同人·手书 (47)</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>990501</v>
+      </c>
+      <c r="F67" t="n">
+        <v>163</v>
+      </c>
+      <c r="G67" t="n">
+        <v>8161</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2269</v>
+      </c>
+      <c r="I67" t="n">
+        <v>750</v>
+      </c>
+      <c r="J67" t="n">
+        <v>84415</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2025-02-17 15:58:55</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>黄泉笑传之吃吃Bean</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>114018161270317</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>BV1GJwVesEEm</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>大黑塔这些小彩蛋太好玩了</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>我是阿歆</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>986071</v>
+      </c>
+      <c r="F68" t="n">
+        <v>151</v>
+      </c>
+      <c r="G68" t="n">
+        <v>7424</v>
+      </c>
+      <c r="H68" t="n">
+        <v>252</v>
+      </c>
+      <c r="I68" t="n">
+        <v>386</v>
+      </c>
+      <c r="J68" t="n">
+        <v>107868</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>2025-01-16 20:51:20</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>113838091406553</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>BV1c6wuesELe</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>给迷迷加上配音，演都不带演？</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ForGetBe</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>979344</v>
+      </c>
+      <c r="F69" t="n">
+        <v>6509</v>
+      </c>
+      <c r="G69" t="n">
+        <v>6714</v>
+      </c>
+      <c r="H69" t="n">
+        <v>825</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3618</v>
+      </c>
+      <c r="J69" t="n">
+        <v>44860</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>2025-01-16 09:00:00</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>能不对迷迷犯错的都是神人</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>113834048098720</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>BV1rcP2eYE6o</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>《车玻璃广告？》</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>小旭搞笑</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>GMV (121)</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>975434</v>
+      </c>
+      <c r="F70" t="n">
+        <v>55</v>
+      </c>
+      <c r="G70" t="n">
+        <v>3339</v>
+      </c>
+      <c r="H70" t="n">
+        <v>81</v>
+      </c>
+      <c r="I70" t="n">
+        <v>298</v>
+      </c>
+      <c r="J70" t="n">
+        <v>37459</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>2025-02-05 21:38:38</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>感谢大家的一键三连，感谢大家的一键三连，感谢大家的一键三连，感谢大家的一键三连，感谢大家的一键三连，感谢大家的一键三连，感谢大家的一键三连，感谢大家的一键三连，感谢大家的一键三连，感谢大家的一键三连。</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>113951538943878</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>BV1kvwne4E6L</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>翁法罗斯开拓现状</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>苦力怕到此一游</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>同人·手书 (47)</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>957361</v>
+      </c>
+      <c r="F71" t="n">
+        <v>691</v>
+      </c>
+      <c r="G71" t="n">
+        <v>7785</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2239</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1742</v>
+      </c>
+      <c r="J71" t="n">
+        <v>86192</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>2025-01-17 17:00:00</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>113841648180610</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>BV1uqAWe2E73</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>星铁角色为什么卖完卡就扔，主角为什么注定成为摄像头。</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>老鬼z9</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>948640</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4505</v>
+      </c>
+      <c r="G72" t="n">
+        <v>11979</v>
+      </c>
+      <c r="H72" t="n">
+        <v>9441</v>
+      </c>
+      <c r="I72" t="n">
+        <v>4628</v>
+      </c>
+      <c r="J72" t="n">
+        <v>31270</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>2025-02-20 19:26:05</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>过于难绷</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>114035928340170</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>BV1iZF5e8EyP</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>星穹铁道春晚【小品合集】</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>暴走丷艾</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>948543</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3036</v>
+      </c>
+      <c r="G73" t="n">
+        <v>27672</v>
+      </c>
+      <c r="H73" t="n">
+        <v>22190</v>
+      </c>
+      <c r="I73" t="n">
+        <v>10685</v>
+      </c>
+      <c r="J73" t="n">
+        <v>93962</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2025-01-30 19:47:30</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>看春晚不如看星铁春晚</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>113917112094253</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>BV1A9fGYaEtP</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>博弈？ 博个屁！ 看丹恒戏耍整个翁法罗斯！翁法罗斯3.0主线高能逐帧解读系列！</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>凤梨不会飞</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>937423</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3091</v>
+      </c>
+      <c r="G74" t="n">
+        <v>17264</v>
+      </c>
+      <c r="H74" t="n">
+        <v>12382</v>
+      </c>
+      <c r="I74" t="n">
+        <v>5314</v>
+      </c>
+      <c r="J74" t="n">
+        <v>53183</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>2025-01-23 18:20:49</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>翁法罗斯3.0主线高能逐帧解读系列第二期！</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>113877148829117</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>BV1NQ67YYExp</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>我已经不敢想明年4.0的主题曲会找谁来了...</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>欢愉令使阿穹</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>926286</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1757</v>
+      </c>
+      <c r="G75" t="n">
+        <v>26395</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1327</v>
+      </c>
+      <c r="I75" t="n">
+        <v>8225</v>
+      </c>
+      <c r="J75" t="n">
+        <v>147946</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>2024-12-31 12:00:00</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
+        <v>113745430843951</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>BV12r6fYnEMK</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>丸辣！一年份的轻松阳光！崩铁翁法罗斯演都不演了！</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>果蝇轰</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>手机游戏 (172)</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>921011</v>
+      </c>
+      <c r="F76" t="n">
+        <v>6745</v>
+      </c>
+      <c r="G76" t="n">
+        <v>12511</v>
+      </c>
+      <c r="H76" t="n">
+        <v>30632</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1615</v>
+      </c>
+      <c r="J76" t="n">
+        <v>83596</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>2025-01-01 23:11:32</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>翁法罗斯，我太爱你了。</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>113753718784497</v>
       </c>
     </row>
   </sheetData>
